--- a/avbernat_working_on/allmorphology_scripts_and_data/update on 06.01.2020/not-tested-bugs-morphology-Winter2020.xlsx
+++ b/avbernat_working_on/allmorphology_scripts_and_data/update on 06.01.2020/not-tested-bugs-morphology-Winter2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/SBB-dispersal/avbernat_working_on/allmorphology_scripts_and_data/update on 06.01.2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EAAB4C-54BF-9E4E-AB32-53212F53BB43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312B3AC0-DEDD-9D41-8D01-92BE7F7CE416}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="460" windowWidth="28040" windowHeight="16740" xr2:uid="{1E07A44A-7420-4D41-8307-01A240CFBE9D}"/>
+    <workbookView xWindow="4180" yWindow="460" windowWidth="24060" windowHeight="16700" xr2:uid="{1E07A44A-7420-4D41-8307-01A240CFBE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="not-tested-bugs-morphology-Wint" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="66">
   <si>
     <t>population</t>
   </si>
@@ -200,6 +200,30 @@
   <si>
     <t>diapause-like behavior observed</t>
   </si>
+  <si>
+    <t>Carysfort Cr</t>
+  </si>
+  <si>
+    <t>Key Largo</t>
+  </si>
+  <si>
+    <t>02.06.2020</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>06.04.2020</t>
+  </si>
+  <si>
+    <t>06.03.2020</t>
+  </si>
+  <si>
+    <t>Lake Wales</t>
+  </si>
 </sst>
 </file>
 
@@ -208,7 +232,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -660,15 +684,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4FE549-93E4-364C-93B3-7FE7EF4BE9D3}">
-  <dimension ref="A1:T156"/>
+  <dimension ref="A1:T246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="Q30" sqref="Q30"/>
+      <selection pane="bottomLeft" activeCell="I208" sqref="I208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.83203125" bestFit="1" customWidth="1"/>
@@ -689,7 +713,7 @@
     <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="17" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
@@ -751,7 +775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="27" t="s">
         <v>55</v>
       </c>
@@ -810,7 +834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="27" t="s">
         <v>55</v>
       </c>
@@ -869,7 +893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="27" t="s">
         <v>55</v>
       </c>
@@ -928,7 +952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="27" t="s">
         <v>55</v>
       </c>
@@ -987,7 +1011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="27" t="s">
         <v>55</v>
       </c>
@@ -1046,7 +1070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="28" t="s">
         <v>55</v>
       </c>
@@ -1105,7 +1129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="18" customFormat="1">
       <c r="A8" s="27" t="s">
         <v>55</v>
       </c>
@@ -1164,7 +1188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="27" t="s">
         <v>55</v>
       </c>
@@ -1223,7 +1247,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="27" t="s">
         <v>55</v>
       </c>
@@ -1282,7 +1306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="27" t="s">
         <v>55</v>
       </c>
@@ -1341,7 +1365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="27" t="s">
         <v>55</v>
       </c>
@@ -1400,7 +1424,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="27" t="s">
         <v>55</v>
       </c>
@@ -1459,7 +1483,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="27" t="s">
         <v>55</v>
       </c>
@@ -1518,7 +1542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="27" t="s">
         <v>55</v>
       </c>
@@ -1577,7 +1601,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="27" t="s">
         <v>55</v>
       </c>
@@ -1636,7 +1660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" s="27" t="s">
         <v>55</v>
       </c>
@@ -1695,7 +1719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="27" t="s">
         <v>55</v>
       </c>
@@ -1754,7 +1778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" s="27" t="s">
         <v>55</v>
       </c>
@@ -1813,7 +1837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" s="27" t="s">
         <v>55</v>
       </c>
@@ -1872,7 +1896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" s="28" t="s">
         <v>55</v>
       </c>
@@ -1932,7 +1956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" s="27" t="s">
         <v>55</v>
       </c>
@@ -1991,7 +2015,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" s="27" t="s">
         <v>55</v>
       </c>
@@ -2050,7 +2074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24" s="27" t="s">
         <v>55</v>
       </c>
@@ -2109,7 +2133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" s="27" t="s">
         <v>55</v>
       </c>
@@ -2168,7 +2192,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" s="27" t="s">
         <v>55</v>
       </c>
@@ -2227,7 +2251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" s="27" t="s">
         <v>55</v>
       </c>
@@ -2286,7 +2310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" s="27" t="s">
         <v>55</v>
       </c>
@@ -2345,7 +2369,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" s="27" t="s">
         <v>55</v>
       </c>
@@ -2404,7 +2428,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" s="27" t="s">
         <v>55</v>
       </c>
@@ -2463,7 +2487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" s="27" t="s">
         <v>55</v>
       </c>
@@ -2522,7 +2546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" s="27" t="s">
         <v>55</v>
       </c>
@@ -2581,7 +2605,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" s="27" t="s">
         <v>55</v>
       </c>
@@ -2640,7 +2664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" s="27" t="s">
         <v>55</v>
       </c>
@@ -2699,7 +2723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" s="27" t="s">
         <v>55</v>
       </c>
@@ -2758,7 +2782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" s="27" t="s">
         <v>55</v>
       </c>
@@ -2817,7 +2841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" s="27" t="s">
         <v>55</v>
       </c>
@@ -2876,7 +2900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" s="27" t="s">
         <v>55</v>
       </c>
@@ -2936,7 +2960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" s="28" t="s">
         <v>55</v>
       </c>
@@ -2996,7 +3020,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40" s="27" t="s">
         <v>55</v>
       </c>
@@ -3055,7 +3079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" s="27" t="s">
         <v>55</v>
       </c>
@@ -3114,7 +3138,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" s="27" t="s">
         <v>55</v>
       </c>
@@ -3174,7 +3198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" s="28" t="s">
         <v>55</v>
       </c>
@@ -3234,7 +3258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" s="27" t="s">
         <v>55</v>
       </c>
@@ -3296,7 +3320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" s="28" t="s">
         <v>55</v>
       </c>
@@ -3358,7 +3382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" s="27" t="s">
         <v>55</v>
       </c>
@@ -3417,7 +3441,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" s="27" t="s">
         <v>55</v>
       </c>
@@ -3477,7 +3501,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20">
       <c r="A48" s="27" t="s">
         <v>55</v>
       </c>
@@ -3537,7 +3561,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" s="10" customFormat="1">
       <c r="A49" s="27" t="s">
         <v>55</v>
       </c>
@@ -3596,7 +3620,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" s="27" t="s">
         <v>55</v>
       </c>
@@ -3655,7 +3679,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" s="27" t="s">
         <v>55</v>
       </c>
@@ -3717,7 +3741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" s="27" t="s">
         <v>55</v>
       </c>
@@ -3776,7 +3800,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" s="28" t="s">
         <v>55</v>
       </c>
@@ -3836,7 +3860,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" s="27" t="s">
         <v>55</v>
       </c>
@@ -3895,7 +3919,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" s="27" t="s">
         <v>55</v>
       </c>
@@ -3954,7 +3978,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="A56" s="27" t="s">
         <v>55</v>
       </c>
@@ -4013,7 +4037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57" s="27" t="s">
         <v>55</v>
       </c>
@@ -4072,7 +4096,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58" s="27" t="s">
         <v>55</v>
       </c>
@@ -4131,7 +4155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59" s="27" t="s">
         <v>55</v>
       </c>
@@ -4190,7 +4214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60" s="27" t="s">
         <v>55</v>
       </c>
@@ -4249,7 +4273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61" s="27" t="s">
         <v>55</v>
       </c>
@@ -4308,7 +4332,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62" s="27" t="s">
         <v>55</v>
       </c>
@@ -4367,7 +4391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63" s="27" t="s">
         <v>55</v>
       </c>
@@ -4426,7 +4450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20">
       <c r="A64" s="27" t="s">
         <v>55</v>
       </c>
@@ -4485,7 +4509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65" s="27" t="s">
         <v>55</v>
       </c>
@@ -4544,7 +4568,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66" s="27" t="s">
         <v>55</v>
       </c>
@@ -4603,7 +4627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="A67" s="28" t="s">
         <v>55</v>
       </c>
@@ -4663,7 +4687,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="A68" s="27" t="s">
         <v>56</v>
       </c>
@@ -4719,7 +4743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="A69" s="27" t="s">
         <v>56</v>
       </c>
@@ -4775,7 +4799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="A70" s="27" t="s">
         <v>56</v>
       </c>
@@ -4831,7 +4855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="A71" s="27" t="s">
         <v>56</v>
       </c>
@@ -4887,7 +4911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20">
       <c r="A72" s="27" t="s">
         <v>56</v>
       </c>
@@ -4943,7 +4967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="A73" s="27" t="s">
         <v>56</v>
       </c>
@@ -4999,7 +5023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="A74" s="27" t="s">
         <v>56</v>
       </c>
@@ -5055,7 +5079,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20">
       <c r="A75" s="27" t="s">
         <v>56</v>
       </c>
@@ -5111,7 +5135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20">
       <c r="A76" s="27" t="s">
         <v>56</v>
       </c>
@@ -5167,7 +5191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20">
       <c r="A77" s="27" t="s">
         <v>56</v>
       </c>
@@ -5223,7 +5247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20">
       <c r="A78" s="27" t="s">
         <v>56</v>
       </c>
@@ -5279,7 +5303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="A79" s="27" t="s">
         <v>56</v>
       </c>
@@ -5335,7 +5359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20">
       <c r="A80" s="27" t="s">
         <v>56</v>
       </c>
@@ -5393,7 +5417,7 @@
       </c>
       <c r="T80" s="10"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20">
       <c r="A81" s="28" t="s">
         <v>56</v>
       </c>
@@ -5451,7 +5475,7 @@
       </c>
       <c r="T81" s="7"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20">
       <c r="A82" s="27" t="s">
         <v>56</v>
       </c>
@@ -5507,7 +5531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20">
       <c r="A83" s="27" t="s">
         <v>56</v>
       </c>
@@ -5566,7 +5590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20">
       <c r="A84" s="27" t="s">
         <v>56</v>
       </c>
@@ -5625,7 +5649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20">
       <c r="A85" s="27" t="s">
         <v>56</v>
       </c>
@@ -5681,7 +5705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20">
       <c r="A86" s="27" t="s">
         <v>56</v>
       </c>
@@ -5740,7 +5764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20">
       <c r="A87" s="27" t="s">
         <v>56</v>
       </c>
@@ -5796,7 +5820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20">
       <c r="A88" s="27" t="s">
         <v>56</v>
       </c>
@@ -5855,7 +5879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20">
       <c r="A89" s="27" t="s">
         <v>56</v>
       </c>
@@ -5911,7 +5935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20">
       <c r="A90" s="27" t="s">
         <v>56</v>
       </c>
@@ -5970,7 +5994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20">
       <c r="A91" s="27" t="s">
         <v>56</v>
       </c>
@@ -6026,7 +6050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20">
       <c r="A92" s="27" t="s">
         <v>56</v>
       </c>
@@ -6085,7 +6109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20">
       <c r="A93" s="27" t="s">
         <v>56</v>
       </c>
@@ -6144,7 +6168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20">
       <c r="A94" s="27" t="s">
         <v>56</v>
       </c>
@@ -6203,7 +6227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20">
       <c r="A95" s="27" t="s">
         <v>56</v>
       </c>
@@ -6262,7 +6286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20">
       <c r="A96" s="27" t="s">
         <v>56</v>
       </c>
@@ -6321,7 +6345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" s="10" customFormat="1">
       <c r="A97" s="27" t="s">
         <v>56</v>
       </c>
@@ -6377,7 +6401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20">
       <c r="A98" s="27" t="s">
         <v>56</v>
       </c>
@@ -6433,7 +6457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20">
       <c r="A99" s="29" t="s">
         <v>56</v>
       </c>
@@ -6491,7 +6515,7 @@
       </c>
       <c r="T99" s="10"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20">
       <c r="A100" s="28" t="s">
         <v>56</v>
       </c>
@@ -6549,7 +6573,7 @@
       </c>
       <c r="T100" s="7"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20">
       <c r="A101" s="27" t="s">
         <v>55</v>
       </c>
@@ -6608,7 +6632,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20">
       <c r="A102" s="27" t="s">
         <v>55</v>
       </c>
@@ -6667,7 +6691,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20">
       <c r="A103" s="27" t="s">
         <v>55</v>
       </c>
@@ -6726,7 +6750,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20">
       <c r="A104" s="27" t="s">
         <v>55</v>
       </c>
@@ -6785,7 +6809,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20">
       <c r="A105" s="27" t="s">
         <v>55</v>
       </c>
@@ -6844,7 +6868,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20">
       <c r="A106" s="27" t="s">
         <v>55</v>
       </c>
@@ -6903,7 +6927,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20">
       <c r="A107" s="27" t="s">
         <v>55</v>
       </c>
@@ -6962,7 +6986,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20">
       <c r="A108" s="27" t="s">
         <v>55</v>
       </c>
@@ -7021,7 +7045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20">
       <c r="A109" s="27" t="s">
         <v>55</v>
       </c>
@@ -7080,7 +7104,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20">
       <c r="A110" s="27" t="s">
         <v>55</v>
       </c>
@@ -7139,7 +7163,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20">
       <c r="A111" s="27" t="s">
         <v>55</v>
       </c>
@@ -7198,7 +7222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20">
       <c r="A112" s="27" t="s">
         <v>55</v>
       </c>
@@ -7257,7 +7281,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20">
       <c r="A113" s="27" t="s">
         <v>55</v>
       </c>
@@ -7316,7 +7340,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20">
       <c r="A114" s="27" t="s">
         <v>55</v>
       </c>
@@ -7375,7 +7399,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20">
       <c r="A115" s="27" t="s">
         <v>55</v>
       </c>
@@ -7434,7 +7458,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20">
       <c r="A116" s="27" t="s">
         <v>55</v>
       </c>
@@ -7493,7 +7517,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20">
       <c r="A117" s="27" t="s">
         <v>55</v>
       </c>
@@ -7552,7 +7576,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20">
       <c r="A118" s="27" t="s">
         <v>55</v>
       </c>
@@ -7611,7 +7635,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20">
       <c r="A119" s="28" t="s">
         <v>55</v>
       </c>
@@ -7673,7 +7697,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20">
       <c r="A120" s="27" t="s">
         <v>56</v>
       </c>
@@ -7729,7 +7753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20">
       <c r="A121" s="27" t="s">
         <v>56</v>
       </c>
@@ -7785,7 +7809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20">
       <c r="A122" s="27" t="s">
         <v>56</v>
       </c>
@@ -7841,7 +7865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20">
       <c r="A123" s="27" t="s">
         <v>56</v>
       </c>
@@ -7897,7 +7921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20">
       <c r="A124" s="27" t="s">
         <v>56</v>
       </c>
@@ -7956,7 +7980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20">
       <c r="A125" s="27" t="s">
         <v>56</v>
       </c>
@@ -8012,7 +8036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20">
       <c r="A126" s="27" t="s">
         <v>56</v>
       </c>
@@ -8068,7 +8092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20">
       <c r="A127" s="27" t="s">
         <v>56</v>
       </c>
@@ -8124,7 +8148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20">
       <c r="A128" s="27" t="s">
         <v>56</v>
       </c>
@@ -8180,7 +8204,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20">
       <c r="A129" s="27" t="s">
         <v>56</v>
       </c>
@@ -8236,7 +8260,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20">
       <c r="A130" s="27" t="s">
         <v>56</v>
       </c>
@@ -8292,7 +8316,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20">
       <c r="A131" s="27" t="s">
         <v>56</v>
       </c>
@@ -8348,7 +8372,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20">
       <c r="A132" s="27" t="s">
         <v>56</v>
       </c>
@@ -8404,7 +8428,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20">
       <c r="A133" s="27" t="s">
         <v>56</v>
       </c>
@@ -8460,7 +8484,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20">
       <c r="A134" s="27" t="s">
         <v>56</v>
       </c>
@@ -8519,7 +8543,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20">
       <c r="A135" s="27" t="s">
         <v>56</v>
       </c>
@@ -8575,7 +8599,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20">
       <c r="A136" s="27" t="s">
         <v>56</v>
       </c>
@@ -8631,7 +8655,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20">
       <c r="A137" s="28" t="s">
         <v>56</v>
       </c>
@@ -8689,7 +8713,7 @@
       </c>
       <c r="T137" s="7"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20">
       <c r="A138" s="27" t="s">
         <v>56</v>
       </c>
@@ -8748,7 +8772,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20">
       <c r="A139" s="27" t="s">
         <v>56</v>
       </c>
@@ -8807,7 +8831,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20">
       <c r="A140" s="27" t="s">
         <v>56</v>
       </c>
@@ -8866,7 +8890,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20">
       <c r="A141" s="27" t="s">
         <v>56</v>
       </c>
@@ -8925,7 +8949,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20">
       <c r="A142" s="27" t="s">
         <v>56</v>
       </c>
@@ -8984,7 +9008,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20">
       <c r="A143" s="27" t="s">
         <v>56</v>
       </c>
@@ -9043,7 +9067,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20">
       <c r="A144" s="27" t="s">
         <v>56</v>
       </c>
@@ -9102,7 +9126,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20">
       <c r="A145" s="27" t="s">
         <v>56</v>
       </c>
@@ -9161,7 +9185,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20">
       <c r="A146" s="27" t="s">
         <v>56</v>
       </c>
@@ -9220,7 +9244,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20">
       <c r="A147" s="27" t="s">
         <v>56</v>
       </c>
@@ -9279,7 +9303,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20">
       <c r="A148" s="27" t="s">
         <v>56</v>
       </c>
@@ -9338,7 +9362,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20">
       <c r="A149" s="27" t="s">
         <v>56</v>
       </c>
@@ -9397,7 +9421,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20">
       <c r="A150" s="27" t="s">
         <v>56</v>
       </c>
@@ -9456,7 +9480,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20">
       <c r="A151" s="27" t="s">
         <v>56</v>
       </c>
@@ -9515,7 +9539,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20">
       <c r="A152" s="27" t="s">
         <v>56</v>
       </c>
@@ -9574,7 +9598,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20">
       <c r="A153" s="27" t="s">
         <v>56</v>
       </c>
@@ -9633,7 +9657,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20">
       <c r="A154" s="27" t="s">
         <v>56</v>
       </c>
@@ -9692,7 +9716,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20">
       <c r="A155" s="27" t="s">
         <v>56</v>
       </c>
@@ -9751,7 +9775,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20">
       <c r="A156" s="28" t="s">
         <v>56</v>
       </c>
@@ -9810,6 +9834,5210 @@
       <c r="T156" s="7" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="157" spans="1:20">
+      <c r="A157" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" s="4">
+        <v>6.12</v>
+      </c>
+      <c r="E157" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="F157" s="4">
+        <v>5.38</v>
+      </c>
+      <c r="G157" s="4">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="H157" s="25">
+        <v>2</v>
+      </c>
+      <c r="I157" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J157" s="6">
+        <v>81</v>
+      </c>
+      <c r="K157" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L157" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M157" s="15">
+        <v>25.2565615</v>
+      </c>
+      <c r="N157" s="15">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O157" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P157" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R157" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S157" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T157" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20">
+      <c r="A158" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="4">
+        <v>6.97</v>
+      </c>
+      <c r="E158" s="4">
+        <v>3.07</v>
+      </c>
+      <c r="F158" s="4">
+        <v>5.12</v>
+      </c>
+      <c r="G158" s="4">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H158" s="25">
+        <v>2</v>
+      </c>
+      <c r="I158" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J158" s="6">
+        <v>81</v>
+      </c>
+      <c r="K158" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L158" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M158" s="15">
+        <v>25.2565615</v>
+      </c>
+      <c r="N158" s="15">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O158" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P158" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R158" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S158" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T158" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20">
+      <c r="A159" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="4">
+        <v>5.94</v>
+      </c>
+      <c r="E159" s="4">
+        <v>2.81</v>
+      </c>
+      <c r="F159" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="G159" s="4">
+        <v>8.11</v>
+      </c>
+      <c r="H159" s="25">
+        <v>2</v>
+      </c>
+      <c r="I159" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J159" s="6">
+        <v>81</v>
+      </c>
+      <c r="K159" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L159" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M159" s="15">
+        <v>25.2565615</v>
+      </c>
+      <c r="N159" s="15">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O159" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P159" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R159" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S159" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T159" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20">
+      <c r="A160" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="E160" s="4">
+        <v>3.18</v>
+      </c>
+      <c r="F160" s="4">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G160" s="4">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="H160" s="25">
+        <v>2</v>
+      </c>
+      <c r="I160" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J160" s="6">
+        <v>81</v>
+      </c>
+      <c r="K160" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L160" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M160" s="15">
+        <v>25.2565615</v>
+      </c>
+      <c r="N160" s="15">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O160" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P160" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R160" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S160" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T160" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20">
+      <c r="A161" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="4">
+        <v>5.35</v>
+      </c>
+      <c r="E161" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="F161" s="4">
+        <v>4.32</v>
+      </c>
+      <c r="G161" s="4">
+        <v>7.36</v>
+      </c>
+      <c r="H161" s="25">
+        <v>2</v>
+      </c>
+      <c r="I161" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J161" s="6">
+        <v>81</v>
+      </c>
+      <c r="K161" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L161" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M161" s="15">
+        <v>25.2565615</v>
+      </c>
+      <c r="N161" s="15">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O161" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P161" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R161" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S161" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T161" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20">
+      <c r="A162" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" s="4">
+        <v>5.62</v>
+      </c>
+      <c r="E162" s="4">
+        <v>2.89</v>
+      </c>
+      <c r="F162" s="4">
+        <v>4.58</v>
+      </c>
+      <c r="G162" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="H162" s="25">
+        <v>2</v>
+      </c>
+      <c r="I162" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J162" s="6">
+        <v>81</v>
+      </c>
+      <c r="K162" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L162" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M162" s="15">
+        <v>25.2565615</v>
+      </c>
+      <c r="N162" s="15">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O162" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P162" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R162" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S162" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T162" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20">
+      <c r="A163" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="E163" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F163" s="4">
+        <v>8.61</v>
+      </c>
+      <c r="G163" s="4">
+        <v>11.88</v>
+      </c>
+      <c r="H163" s="25">
+        <v>2</v>
+      </c>
+      <c r="I163" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J163" s="6">
+        <v>81</v>
+      </c>
+      <c r="K163" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L163" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M163" s="15">
+        <v>25.2565615</v>
+      </c>
+      <c r="N163" s="15">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O163" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P163" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R163" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S163" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T163" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20">
+      <c r="A164" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="4">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="E164" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="F164" s="4">
+        <v>4.47</v>
+      </c>
+      <c r="G164" s="4">
+        <v>7.02</v>
+      </c>
+      <c r="H164" s="25">
+        <v>2</v>
+      </c>
+      <c r="I164" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J164" s="6">
+        <v>81</v>
+      </c>
+      <c r="K164" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L164" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M164" s="15">
+        <v>25.2565615</v>
+      </c>
+      <c r="N164" s="15">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O164" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P164" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R164" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S164" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T164" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20">
+      <c r="A165" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165" s="4">
+        <v>6</v>
+      </c>
+      <c r="E165" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="F165" s="4">
+        <v>4.68</v>
+      </c>
+      <c r="G165" s="4">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H165" s="25">
+        <v>2</v>
+      </c>
+      <c r="I165" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J165" s="6">
+        <v>81</v>
+      </c>
+      <c r="K165" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L165" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M165" s="15">
+        <v>25.2565615</v>
+      </c>
+      <c r="N165" s="15">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O165" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P165" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R165" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S165" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T165" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20">
+      <c r="A166" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166" s="4">
+        <v>6.57</v>
+      </c>
+      <c r="E166" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="F166" s="4">
+        <v>8.36</v>
+      </c>
+      <c r="G166" s="4">
+        <v>11.92</v>
+      </c>
+      <c r="H166" s="25">
+        <v>2</v>
+      </c>
+      <c r="I166" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J166" s="6">
+        <v>81</v>
+      </c>
+      <c r="K166" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L166" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M166" s="15">
+        <v>25.2565615</v>
+      </c>
+      <c r="N166" s="15">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O166" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P166" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R166" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S166" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T166" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20">
+      <c r="A167" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" s="4">
+        <v>6.36</v>
+      </c>
+      <c r="E167" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="F167" s="4">
+        <v>4.67</v>
+      </c>
+      <c r="G167" s="4">
+        <v>8.09</v>
+      </c>
+      <c r="H167" s="25">
+        <v>2</v>
+      </c>
+      <c r="I167" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J167" s="6">
+        <v>81</v>
+      </c>
+      <c r="K167" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L167" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M167" s="15">
+        <v>25.2565615</v>
+      </c>
+      <c r="N167" s="15">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O167" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P167" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R167" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S167" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T167" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20">
+      <c r="A168" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="4">
+        <v>6.48</v>
+      </c>
+      <c r="E168" s="4">
+        <v>3.19</v>
+      </c>
+      <c r="F168" s="4">
+        <v>8.69</v>
+      </c>
+      <c r="G168" s="4">
+        <v>11.99</v>
+      </c>
+      <c r="H168" s="25">
+        <v>2</v>
+      </c>
+      <c r="I168" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J168" s="6">
+        <v>81</v>
+      </c>
+      <c r="K168" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L168" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M168" s="15">
+        <v>25.2565615</v>
+      </c>
+      <c r="N168" s="15">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O168" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P168" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R168" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S168" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T168" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20">
+      <c r="A169" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B169" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D169" s="4">
+        <v>6.11</v>
+      </c>
+      <c r="E169" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="F169" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G169" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="H169" s="25">
+        <v>2</v>
+      </c>
+      <c r="I169" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J169" s="6">
+        <v>81</v>
+      </c>
+      <c r="K169" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L169" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M169" s="15">
+        <v>25.2565615</v>
+      </c>
+      <c r="N169" s="15">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O169" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P169" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R169" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S169" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T169" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20">
+      <c r="A170" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B170" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170" s="4">
+        <v>7.53</v>
+      </c>
+      <c r="E170" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="F170" s="4">
+        <v>8.75</v>
+      </c>
+      <c r="G170" s="4">
+        <v>12</v>
+      </c>
+      <c r="H170" s="25">
+        <v>2</v>
+      </c>
+      <c r="I170" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J170" s="6">
+        <v>81</v>
+      </c>
+      <c r="K170" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L170" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M170" s="15">
+        <v>25.2565615</v>
+      </c>
+      <c r="N170" s="15">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O170" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P170" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R170" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S170" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T170" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20">
+      <c r="A171" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D171" s="4">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E171" s="4">
+        <v>3.85</v>
+      </c>
+      <c r="F171" s="4">
+        <v>10.09</v>
+      </c>
+      <c r="G171" s="4">
+        <v>14.09</v>
+      </c>
+      <c r="H171" s="25">
+        <v>2</v>
+      </c>
+      <c r="I171" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J171" s="6">
+        <v>81</v>
+      </c>
+      <c r="K171" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L171" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M171" s="15">
+        <v>25.2565615</v>
+      </c>
+      <c r="N171" s="15">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O171" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P171" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R171" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S171" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T171" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20">
+      <c r="A172" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E172" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="F172" s="4">
+        <v>6.92</v>
+      </c>
+      <c r="G172" s="4">
+        <v>9.83</v>
+      </c>
+      <c r="H172" s="25">
+        <v>2</v>
+      </c>
+      <c r="I172" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J172" s="6">
+        <v>81</v>
+      </c>
+      <c r="K172" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L172" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M172" s="15">
+        <v>25.2565615</v>
+      </c>
+      <c r="N172" s="15">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O172" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P172" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R172" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S172" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T172" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20">
+      <c r="A173" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D173" s="24">
+        <v>8.25</v>
+      </c>
+      <c r="E173" s="24">
+        <v>3.54</v>
+      </c>
+      <c r="F173" s="24">
+        <v>8.75</v>
+      </c>
+      <c r="G173" s="24">
+        <v>12.44</v>
+      </c>
+      <c r="H173" s="25">
+        <v>2</v>
+      </c>
+      <c r="I173" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J173" s="25">
+        <v>81</v>
+      </c>
+      <c r="K173" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L173" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M173" s="22">
+        <v>25.2565615</v>
+      </c>
+      <c r="N173" s="22">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O173" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P173" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q173" s="10"/>
+      <c r="R173" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S173" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T173" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20">
+      <c r="A174" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B174" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C174" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="E174" s="8">
+        <v>3.19</v>
+      </c>
+      <c r="F174" s="8">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="G174" s="8">
+        <v>11.2</v>
+      </c>
+      <c r="H174" s="9">
+        <v>2</v>
+      </c>
+      <c r="I174" s="9">
+        <v>2020</v>
+      </c>
+      <c r="J174" s="9">
+        <v>81</v>
+      </c>
+      <c r="K174" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L174" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M174" s="16">
+        <v>25.2565615</v>
+      </c>
+      <c r="N174" s="16">
+        <v>-80.310804200000007</v>
+      </c>
+      <c r="O174" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P174" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q174" s="7"/>
+      <c r="R174" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="S174" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="T174" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20">
+      <c r="A175" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" s="4">
+        <v>5.35</v>
+      </c>
+      <c r="E175" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="F175" s="4">
+        <v>4.34</v>
+      </c>
+      <c r="G175" s="4">
+        <v>7.34</v>
+      </c>
+      <c r="H175" s="25">
+        <v>2</v>
+      </c>
+      <c r="I175" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J175" s="6">
+        <v>81</v>
+      </c>
+      <c r="K175" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L175" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M175" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N175" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O175" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P175" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R175" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S175" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T175" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20">
+      <c r="A176" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="E176" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="F176" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="G176" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H176" s="25">
+        <v>2</v>
+      </c>
+      <c r="I176" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J176" s="25">
+        <v>81</v>
+      </c>
+      <c r="K176" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L176" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M176" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N176" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O176" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P176" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R176" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S176" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T176" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20">
+      <c r="A177" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B177" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" s="4">
+        <v>5.26</v>
+      </c>
+      <c r="E177" s="4">
+        <v>2.62</v>
+      </c>
+      <c r="F177" s="4">
+        <v>5.42</v>
+      </c>
+      <c r="G177" s="4">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="H177" s="25">
+        <v>2</v>
+      </c>
+      <c r="I177" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J177" s="25">
+        <v>81</v>
+      </c>
+      <c r="K177" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L177" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M177" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N177" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O177" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P177" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R177" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S177" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T177" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20">
+      <c r="A178" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B178" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" s="4">
+        <v>5.35</v>
+      </c>
+      <c r="E178" s="4">
+        <v>2.59</v>
+      </c>
+      <c r="F178" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G178" s="4">
+        <v>7.07</v>
+      </c>
+      <c r="H178" s="25">
+        <v>2</v>
+      </c>
+      <c r="I178" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J178" s="25">
+        <v>81</v>
+      </c>
+      <c r="K178" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L178" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M178" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N178" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O178" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P178" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R178" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S178" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T178" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20">
+      <c r="A179" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B179" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179" s="4">
+        <v>5.88</v>
+      </c>
+      <c r="E179" s="4">
+        <v>2.76</v>
+      </c>
+      <c r="F179" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="G179" s="4">
+        <v>8.81</v>
+      </c>
+      <c r="H179" s="25">
+        <v>2</v>
+      </c>
+      <c r="I179" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J179" s="25">
+        <v>81</v>
+      </c>
+      <c r="K179" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L179" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M179" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N179" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O179" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P179" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R179" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S179" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T179" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20">
+      <c r="A180" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B180" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="4">
+        <v>5.81</v>
+      </c>
+      <c r="E180" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="F180" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="G180" s="4">
+        <v>8.68</v>
+      </c>
+      <c r="H180" s="25">
+        <v>2</v>
+      </c>
+      <c r="I180" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J180" s="25">
+        <v>81</v>
+      </c>
+      <c r="K180" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L180" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M180" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N180" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O180" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P180" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R180" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S180" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T180" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20">
+      <c r="A181" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B181" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="4">
+        <v>5.17</v>
+      </c>
+      <c r="E181" s="4">
+        <v>2.59</v>
+      </c>
+      <c r="F181" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G181" s="4">
+        <v>7.44</v>
+      </c>
+      <c r="H181" s="25">
+        <v>2</v>
+      </c>
+      <c r="I181" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J181" s="25">
+        <v>81</v>
+      </c>
+      <c r="K181" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L181" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M181" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N181" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O181" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P181" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R181" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S181" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T181" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20">
+      <c r="A182" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D182" s="4">
+        <v>5.74</v>
+      </c>
+      <c r="E182" s="4">
+        <v>2.74</v>
+      </c>
+      <c r="F182" s="4">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="G182" s="4">
+        <v>7.67</v>
+      </c>
+      <c r="H182" s="25">
+        <v>2</v>
+      </c>
+      <c r="I182" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J182" s="25">
+        <v>81</v>
+      </c>
+      <c r="K182" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L182" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M182" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N182" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O182" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P182" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R182" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S182" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T182" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20">
+      <c r="A183" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B183" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183" s="4">
+        <v>5.48</v>
+      </c>
+      <c r="E183" s="4">
+        <v>2.46</v>
+      </c>
+      <c r="F183" s="4">
+        <v>3.66</v>
+      </c>
+      <c r="G183" s="4">
+        <v>6.68</v>
+      </c>
+      <c r="H183" s="25">
+        <v>2</v>
+      </c>
+      <c r="I183" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J183" s="25">
+        <v>81</v>
+      </c>
+      <c r="K183" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L183" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M183" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N183" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O183" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P183" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R183" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S183" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T183" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20">
+      <c r="A184" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B184" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D184" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="E184" s="4">
+        <v>3.23</v>
+      </c>
+      <c r="F184" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="G184" s="4">
+        <v>8.61</v>
+      </c>
+      <c r="H184" s="25">
+        <v>2</v>
+      </c>
+      <c r="I184" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J184" s="25">
+        <v>81</v>
+      </c>
+      <c r="K184" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L184" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M184" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N184" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O184" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P184" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R184" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S184" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T184" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20">
+      <c r="A185" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B185" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" s="4">
+        <v>6.51</v>
+      </c>
+      <c r="E185" s="4">
+        <v>3</v>
+      </c>
+      <c r="F185" s="4">
+        <v>5.07</v>
+      </c>
+      <c r="G185" s="4">
+        <v>8.91</v>
+      </c>
+      <c r="H185" s="25">
+        <v>2</v>
+      </c>
+      <c r="I185" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J185" s="25">
+        <v>81</v>
+      </c>
+      <c r="K185" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L185" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M185" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N185" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O185" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P185" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R185" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S185" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T185" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20">
+      <c r="A186" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D186" s="4">
+        <v>6.67</v>
+      </c>
+      <c r="E186" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="F186" s="4">
+        <v>5.13</v>
+      </c>
+      <c r="G186" s="4">
+        <v>8.69</v>
+      </c>
+      <c r="H186" s="25">
+        <v>2</v>
+      </c>
+      <c r="I186" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J186" s="25">
+        <v>81</v>
+      </c>
+      <c r="K186" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L186" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M186" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N186" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O186" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P186" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R186" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S186" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T186" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20">
+      <c r="A187" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B187" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187" s="4">
+        <v>6</v>
+      </c>
+      <c r="E187" s="4">
+        <v>2.82</v>
+      </c>
+      <c r="F187" s="4">
+        <v>4.76</v>
+      </c>
+      <c r="G187" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H187" s="25">
+        <v>2</v>
+      </c>
+      <c r="I187" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J187" s="25">
+        <v>81</v>
+      </c>
+      <c r="K187" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L187" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M187" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N187" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O187" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P187" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R187" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S187" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T187" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20">
+      <c r="A188" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" s="4">
+        <v>5.56</v>
+      </c>
+      <c r="E188" s="4">
+        <v>2.69</v>
+      </c>
+      <c r="F188" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="G188" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="H188" s="25">
+        <v>2</v>
+      </c>
+      <c r="I188" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J188" s="25">
+        <v>81</v>
+      </c>
+      <c r="K188" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L188" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M188" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N188" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O188" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P188" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R188" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S188" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T188" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20">
+      <c r="A189" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B189" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D189" s="4">
+        <v>6.27</v>
+      </c>
+      <c r="E189" s="4">
+        <v>2.92</v>
+      </c>
+      <c r="F189" s="4">
+        <v>5.24</v>
+      </c>
+      <c r="G189" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="H189" s="25">
+        <v>2</v>
+      </c>
+      <c r="I189" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J189" s="25">
+        <v>81</v>
+      </c>
+      <c r="K189" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L189" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M189" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N189" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O189" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P189" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R189" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S189" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T189" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20">
+      <c r="A190" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B190" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D190" s="4">
+        <v>6.62</v>
+      </c>
+      <c r="E190" s="4">
+        <v>2.88</v>
+      </c>
+      <c r="F190" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="G190" s="4">
+        <v>8.33</v>
+      </c>
+      <c r="H190" s="25">
+        <v>2</v>
+      </c>
+      <c r="I190" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J190" s="25">
+        <v>81</v>
+      </c>
+      <c r="K190" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L190" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M190" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N190" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O190" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P190" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R190" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S190" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T190" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20">
+      <c r="A191" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B191" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="4">
+        <v>5.55</v>
+      </c>
+      <c r="E191" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F191" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="G191" s="4">
+        <v>7.77</v>
+      </c>
+      <c r="H191" s="25">
+        <v>2</v>
+      </c>
+      <c r="I191" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J191" s="25">
+        <v>81</v>
+      </c>
+      <c r="K191" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L191" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M191" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N191" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O191" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P191" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R191" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S191" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T191" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20">
+      <c r="A192" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D192" s="4">
+        <v>6.48</v>
+      </c>
+      <c r="E192" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="F192" s="4">
+        <v>4.57</v>
+      </c>
+      <c r="G192" s="4">
+        <v>8.15</v>
+      </c>
+      <c r="H192" s="25">
+        <v>2</v>
+      </c>
+      <c r="I192" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J192" s="25">
+        <v>81</v>
+      </c>
+      <c r="K192" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L192" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M192" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N192" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O192" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P192" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R192" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S192" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T192" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20">
+      <c r="A193" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" s="4">
+        <v>5.18</v>
+      </c>
+      <c r="E193" s="4">
+        <v>2.56</v>
+      </c>
+      <c r="F193" s="4">
+        <v>4.05</v>
+      </c>
+      <c r="G193" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="H193" s="25">
+        <v>2</v>
+      </c>
+      <c r="I193" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J193" s="25">
+        <v>81</v>
+      </c>
+      <c r="K193" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L193" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M193" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N193" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O193" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P193" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R193" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S193" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T193" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20">
+      <c r="A194" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194" s="4">
+        <v>5.15</v>
+      </c>
+      <c r="E194" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="F194" s="4">
+        <v>4.07</v>
+      </c>
+      <c r="G194" s="4">
+        <v>6.91</v>
+      </c>
+      <c r="H194" s="25">
+        <v>2</v>
+      </c>
+      <c r="I194" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J194" s="25">
+        <v>81</v>
+      </c>
+      <c r="K194" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L194" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M194" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N194" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O194" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P194" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R194" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S194" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T194" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20">
+      <c r="A195" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D195" s="4">
+        <v>6.88</v>
+      </c>
+      <c r="E195" s="4">
+        <v>3.29</v>
+      </c>
+      <c r="F195" s="4">
+        <v>5.46</v>
+      </c>
+      <c r="G195" s="4">
+        <v>9.24</v>
+      </c>
+      <c r="H195" s="25">
+        <v>2</v>
+      </c>
+      <c r="I195" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J195" s="25">
+        <v>81</v>
+      </c>
+      <c r="K195" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L195" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M195" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N195" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O195" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P195" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R195" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S195" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T195" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20">
+      <c r="A196" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B196" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" s="4">
+        <v>5.28</v>
+      </c>
+      <c r="E196" s="4">
+        <v>2.58</v>
+      </c>
+      <c r="F196" s="4">
+        <v>4.92</v>
+      </c>
+      <c r="G196" s="4">
+        <v>7.52</v>
+      </c>
+      <c r="H196" s="25">
+        <v>2</v>
+      </c>
+      <c r="I196" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J196" s="25">
+        <v>81</v>
+      </c>
+      <c r="K196" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L196" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M196" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N196" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O196" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P196" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R196" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S196" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T196" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20">
+      <c r="A197" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B197" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D197" s="4">
+        <v>7.11</v>
+      </c>
+      <c r="E197" s="4">
+        <v>2.88</v>
+      </c>
+      <c r="F197" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="G197" s="4">
+        <v>8.65</v>
+      </c>
+      <c r="H197" s="25">
+        <v>2</v>
+      </c>
+      <c r="I197" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J197" s="25">
+        <v>81</v>
+      </c>
+      <c r="K197" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L197" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M197" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N197" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O197" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P197" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R197" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S197" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T197" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20">
+      <c r="A198" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B198" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" s="4">
+        <v>6.85</v>
+      </c>
+      <c r="E198" s="4">
+        <v>3.16</v>
+      </c>
+      <c r="F198" s="4">
+        <v>5.24</v>
+      </c>
+      <c r="G198" s="4">
+        <v>8.65</v>
+      </c>
+      <c r="H198" s="25">
+        <v>2</v>
+      </c>
+      <c r="I198" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J198" s="25">
+        <v>81</v>
+      </c>
+      <c r="K198" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L198" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M198" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N198" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O198" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P198" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R198" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S198" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T198" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20">
+      <c r="A199" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B199" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D199" s="4">
+        <v>8.83</v>
+      </c>
+      <c r="E199" s="4">
+        <v>3.54</v>
+      </c>
+      <c r="F199" s="4">
+        <v>9.23</v>
+      </c>
+      <c r="G199" s="4">
+        <v>12.92</v>
+      </c>
+      <c r="H199" s="25">
+        <v>2</v>
+      </c>
+      <c r="I199" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J199" s="25">
+        <v>81</v>
+      </c>
+      <c r="K199" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L199" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M199" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N199" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O199" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P199" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R199" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S199" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T199" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20">
+      <c r="A200" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B200" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C200" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D200" s="4">
+        <v>6.65</v>
+      </c>
+      <c r="E200" s="4">
+        <v>3.11</v>
+      </c>
+      <c r="F200" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="G200" s="4">
+        <v>8.76</v>
+      </c>
+      <c r="H200" s="25">
+        <v>2</v>
+      </c>
+      <c r="I200" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J200" s="25">
+        <v>81</v>
+      </c>
+      <c r="K200" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L200" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M200" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N200" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O200" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P200" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R200" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S200" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T200" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20">
+      <c r="A201" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B201" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C201" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D201" s="4">
+        <v>5.74</v>
+      </c>
+      <c r="E201" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="F201" s="4">
+        <v>4.57</v>
+      </c>
+      <c r="G201" s="4">
+        <v>7.38</v>
+      </c>
+      <c r="H201" s="25">
+        <v>2</v>
+      </c>
+      <c r="I201" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J201" s="25">
+        <v>81</v>
+      </c>
+      <c r="K201" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L201" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M201" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N201" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O201" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P201" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R201" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S201" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T201" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20">
+      <c r="A202" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B202" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C202" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D202" s="4">
+        <v>5.81</v>
+      </c>
+      <c r="E202" s="4">
+        <v>2.84</v>
+      </c>
+      <c r="F202" s="4">
+        <v>5.01</v>
+      </c>
+      <c r="G202" s="4">
+        <v>8.14</v>
+      </c>
+      <c r="H202" s="25">
+        <v>2</v>
+      </c>
+      <c r="I202" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J202" s="25">
+        <v>81</v>
+      </c>
+      <c r="K202" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L202" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M202" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N202" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O202" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P202" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R202" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S202" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T202" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20">
+      <c r="A203" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B203" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C203" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D203" s="4">
+        <v>5.68</v>
+      </c>
+      <c r="E203" s="4">
+        <v>2.73</v>
+      </c>
+      <c r="F203" s="4">
+        <v>4.57</v>
+      </c>
+      <c r="G203" s="4">
+        <v>7.67</v>
+      </c>
+      <c r="H203" s="25">
+        <v>2</v>
+      </c>
+      <c r="I203" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J203" s="25">
+        <v>81</v>
+      </c>
+      <c r="K203" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L203" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M203" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N203" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O203" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P203" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R203" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S203" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T203" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20">
+      <c r="A204" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B204" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D204" s="4">
+        <v>7.22</v>
+      </c>
+      <c r="E204" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="F204" s="4">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="G204" s="4">
+        <v>12.56</v>
+      </c>
+      <c r="H204" s="25">
+        <v>2</v>
+      </c>
+      <c r="I204" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J204" s="25">
+        <v>81</v>
+      </c>
+      <c r="K204" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L204" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M204" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N204" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O204" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P204" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R204" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S204" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T204" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20">
+      <c r="A205" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B205" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D205" s="4">
+        <v>6.43</v>
+      </c>
+      <c r="E205" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="F205" s="4">
+        <v>4.87</v>
+      </c>
+      <c r="G205" s="4">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="H205" s="25">
+        <v>2</v>
+      </c>
+      <c r="I205" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J205" s="25">
+        <v>81</v>
+      </c>
+      <c r="K205" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L205" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M205" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N205" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O205" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P205" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R205" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S205" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T205" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20">
+      <c r="A206" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B206" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206" s="4">
+        <v>6.09</v>
+      </c>
+      <c r="E206" s="4">
+        <v>2.92</v>
+      </c>
+      <c r="F206" s="4">
+        <v>5.42</v>
+      </c>
+      <c r="G206" s="4">
+        <v>8.52</v>
+      </c>
+      <c r="H206" s="25">
+        <v>2</v>
+      </c>
+      <c r="I206" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J206" s="25">
+        <v>81</v>
+      </c>
+      <c r="K206" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L206" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M206" s="15">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N206" s="15">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O206" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P206" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R206" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S206" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T206" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20">
+      <c r="A207" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B207" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C207" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D207" s="8">
+        <v>6.48</v>
+      </c>
+      <c r="E207" s="8">
+        <v>3.18</v>
+      </c>
+      <c r="F207" s="8">
+        <v>8.06</v>
+      </c>
+      <c r="G207" s="8">
+        <v>11.2</v>
+      </c>
+      <c r="H207" s="9">
+        <v>2</v>
+      </c>
+      <c r="I207" s="9">
+        <v>2020</v>
+      </c>
+      <c r="J207" s="9">
+        <v>81</v>
+      </c>
+      <c r="K207" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L207" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M207" s="16">
+        <v>25.128578000000001</v>
+      </c>
+      <c r="N207" s="16">
+        <v>-80.408091299999995</v>
+      </c>
+      <c r="O207" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P207" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q207" s="7"/>
+      <c r="R207" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="S207" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="T207" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20">
+      <c r="A208" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B208" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C208" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D208" s="4">
+        <v>5.73</v>
+      </c>
+      <c r="E208" s="4">
+        <v>2.99</v>
+      </c>
+      <c r="F208" s="4">
+        <v>7.88</v>
+      </c>
+      <c r="G208" s="4">
+        <v>11.13</v>
+      </c>
+      <c r="H208" s="25">
+        <v>2</v>
+      </c>
+      <c r="I208" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J208" s="25">
+        <v>81</v>
+      </c>
+      <c r="K208" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L208" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M208" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N208" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O208" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P208" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R208" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S208" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T208" s="17"/>
+    </row>
+    <row r="209" spans="1:20">
+      <c r="A209" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B209" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C209" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D209" s="4">
+        <v>5.96</v>
+      </c>
+      <c r="E209" s="4">
+        <v>3.37</v>
+      </c>
+      <c r="F209" s="4">
+        <v>8.93</v>
+      </c>
+      <c r="G209" s="4">
+        <v>12.11</v>
+      </c>
+      <c r="H209" s="25">
+        <v>2</v>
+      </c>
+      <c r="I209" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J209" s="25">
+        <v>81</v>
+      </c>
+      <c r="K209" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L209" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M209" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N209" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O209" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P209" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R209" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S209" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T209" s="17"/>
+    </row>
+    <row r="210" spans="1:20">
+      <c r="A210" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B210" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C210" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D210" s="4">
+        <v>7.02</v>
+      </c>
+      <c r="E210" s="4">
+        <v>3.53</v>
+      </c>
+      <c r="F210" s="4">
+        <v>9.35</v>
+      </c>
+      <c r="G210" s="4">
+        <v>12.62</v>
+      </c>
+      <c r="H210" s="25">
+        <v>2</v>
+      </c>
+      <c r="I210" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J210" s="25">
+        <v>81</v>
+      </c>
+      <c r="K210" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L210" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M210" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N210" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O210" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P210" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R210" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S210" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T210" s="17"/>
+    </row>
+    <row r="211" spans="1:20">
+      <c r="A211" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B211" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C211" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D211" s="4">
+        <v>7.16</v>
+      </c>
+      <c r="E211" s="4">
+        <v>3.37</v>
+      </c>
+      <c r="F211" s="4">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="G211" s="4">
+        <v>12.66</v>
+      </c>
+      <c r="H211" s="25">
+        <v>2</v>
+      </c>
+      <c r="I211" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J211" s="25">
+        <v>81</v>
+      </c>
+      <c r="K211" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L211" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M211" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N211" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O211" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P211" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R211" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S211" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20">
+      <c r="A212" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B212" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D212" s="4">
+        <v>5.54</v>
+      </c>
+      <c r="E212" s="4">
+        <v>3.14</v>
+      </c>
+      <c r="F212" s="4">
+        <v>8.32</v>
+      </c>
+      <c r="G212" s="4">
+        <v>11.48</v>
+      </c>
+      <c r="H212" s="25">
+        <v>2</v>
+      </c>
+      <c r="I212" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J212" s="25">
+        <v>81</v>
+      </c>
+      <c r="K212" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L212" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M212" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N212" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O212" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P212" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R212" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S212" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20">
+      <c r="A213" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B213" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C213" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D213" s="4">
+        <v>5.16</v>
+      </c>
+      <c r="E213" s="4">
+        <v>3.04</v>
+      </c>
+      <c r="F213" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="G213" s="4">
+        <v>11.03</v>
+      </c>
+      <c r="H213" s="25">
+        <v>2</v>
+      </c>
+      <c r="I213" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J213" s="25">
+        <v>81</v>
+      </c>
+      <c r="K213" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L213" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M213" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N213" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O213" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P213" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R213" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S213" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20">
+      <c r="A214" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B214" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C214" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D214" s="4">
+        <v>5.71</v>
+      </c>
+      <c r="E214" s="4">
+        <v>3.24</v>
+      </c>
+      <c r="F214" s="4">
+        <v>8.09</v>
+      </c>
+      <c r="G214" s="4">
+        <v>11.05</v>
+      </c>
+      <c r="H214" s="25">
+        <v>2</v>
+      </c>
+      <c r="I214" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J214" s="25">
+        <v>81</v>
+      </c>
+      <c r="K214" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L214" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M214" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N214" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O214" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P214" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q214" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R214" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S214" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20">
+      <c r="A215" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B215" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C215" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D215" s="4">
+        <v>7.25</v>
+      </c>
+      <c r="E215" s="4">
+        <v>3.85</v>
+      </c>
+      <c r="F215" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="G215" s="4">
+        <v>13.48</v>
+      </c>
+      <c r="H215" s="25">
+        <v>2</v>
+      </c>
+      <c r="I215" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J215" s="25">
+        <v>81</v>
+      </c>
+      <c r="K215" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L215" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M215" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N215" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O215" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P215" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R215" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S215" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20">
+      <c r="A216" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B216" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C216" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D216" s="4">
+        <v>5.47</v>
+      </c>
+      <c r="E216" s="4">
+        <v>3.21</v>
+      </c>
+      <c r="F216" s="4">
+        <v>8.33</v>
+      </c>
+      <c r="G216" s="4">
+        <v>11.21</v>
+      </c>
+      <c r="H216" s="25">
+        <v>2</v>
+      </c>
+      <c r="I216" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J216" s="25">
+        <v>81</v>
+      </c>
+      <c r="K216" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L216" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M216" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N216" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O216" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P216" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R216" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S216" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20">
+      <c r="A217" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B217" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C217" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D217" s="4">
+        <v>6.26</v>
+      </c>
+      <c r="E217" s="4">
+        <v>2.89</v>
+      </c>
+      <c r="F217" s="4">
+        <v>8.07</v>
+      </c>
+      <c r="G217" s="4">
+        <v>10.93</v>
+      </c>
+      <c r="H217" s="25">
+        <v>2</v>
+      </c>
+      <c r="I217" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J217" s="25">
+        <v>81</v>
+      </c>
+      <c r="K217" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L217" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M217" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N217" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O217" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P217" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R217" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S217" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20">
+      <c r="A218" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B218" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D218" s="4">
+        <v>6.44</v>
+      </c>
+      <c r="E218" s="4">
+        <v>3.63</v>
+      </c>
+      <c r="F218" s="4">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="G218" s="4">
+        <v>12.82</v>
+      </c>
+      <c r="H218" s="25">
+        <v>2</v>
+      </c>
+      <c r="I218" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J218" s="25">
+        <v>81</v>
+      </c>
+      <c r="K218" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L218" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M218" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N218" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O218" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P218" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R218" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S218" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20">
+      <c r="A219" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B219" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D219" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="E219" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="F219" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="G219" s="4">
+        <v>11.02</v>
+      </c>
+      <c r="H219" s="25">
+        <v>2</v>
+      </c>
+      <c r="I219" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J219" s="25">
+        <v>81</v>
+      </c>
+      <c r="K219" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L219" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M219" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N219" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O219" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P219" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R219" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S219" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20">
+      <c r="A220" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B220" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C220" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D220" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="E220" s="4">
+        <v>3.44</v>
+      </c>
+      <c r="F220" s="4">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="G220" s="4">
+        <v>12.52</v>
+      </c>
+      <c r="H220" s="25">
+        <v>2</v>
+      </c>
+      <c r="I220" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J220" s="25">
+        <v>81</v>
+      </c>
+      <c r="K220" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L220" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M220" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N220" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O220" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P220" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R220" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S220" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20">
+      <c r="A221" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B221" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C221" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D221" s="4">
+        <v>5.05</v>
+      </c>
+      <c r="E221" s="4">
+        <v>2.79</v>
+      </c>
+      <c r="F221" s="4">
+        <v>7.91</v>
+      </c>
+      <c r="G221" s="4">
+        <v>10.82</v>
+      </c>
+      <c r="H221" s="25">
+        <v>2</v>
+      </c>
+      <c r="I221" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J221" s="25">
+        <v>81</v>
+      </c>
+      <c r="K221" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L221" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M221" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N221" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O221" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P221" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R221" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S221" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20">
+      <c r="A222" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B222" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D222" s="4">
+        <v>6.44</v>
+      </c>
+      <c r="E222" s="4">
+        <v>3.68</v>
+      </c>
+      <c r="F222" s="4">
+        <v>9.52</v>
+      </c>
+      <c r="G222" s="4">
+        <v>12.91</v>
+      </c>
+      <c r="H222" s="25">
+        <v>2</v>
+      </c>
+      <c r="I222" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J222" s="25">
+        <v>81</v>
+      </c>
+      <c r="K222" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L222" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M222" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N222" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O222" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P222" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R222" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S222" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20">
+      <c r="A223" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B223" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C223" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D223" s="4">
+        <v>7.58</v>
+      </c>
+      <c r="E223" s="4">
+        <v>3.36</v>
+      </c>
+      <c r="F223" s="4">
+        <v>9.24</v>
+      </c>
+      <c r="G223" s="4">
+        <v>12.63</v>
+      </c>
+      <c r="H223" s="25">
+        <v>2</v>
+      </c>
+      <c r="I223" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J223" s="25">
+        <v>81</v>
+      </c>
+      <c r="K223" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L223" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M223" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N223" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O223" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P223" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R223" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S223" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20">
+      <c r="A224" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B224" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D224" s="4">
+        <v>5.54</v>
+      </c>
+      <c r="E224" s="4">
+        <v>3</v>
+      </c>
+      <c r="F224" s="4">
+        <v>7.98</v>
+      </c>
+      <c r="G224" s="4">
+        <v>10.91</v>
+      </c>
+      <c r="H224" s="25">
+        <v>2</v>
+      </c>
+      <c r="I224" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J224" s="25">
+        <v>81</v>
+      </c>
+      <c r="K224" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L224" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M224" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N224" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O224" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P224" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R224" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S224" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19">
+      <c r="A225" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B225" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C225" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D225" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="E225" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="F225" s="4">
+        <v>7.47</v>
+      </c>
+      <c r="G225" s="4">
+        <v>10.23</v>
+      </c>
+      <c r="H225" s="25">
+        <v>2</v>
+      </c>
+      <c r="I225" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J225" s="25">
+        <v>81</v>
+      </c>
+      <c r="K225" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L225" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M225" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N225" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O225" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P225" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R225" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S225" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19">
+      <c r="A226" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B226" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C226" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D226" s="4">
+        <v>7.28</v>
+      </c>
+      <c r="E226" s="4">
+        <v>3.32</v>
+      </c>
+      <c r="F226" s="4">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="G226" s="4">
+        <v>12.61</v>
+      </c>
+      <c r="H226" s="25">
+        <v>2</v>
+      </c>
+      <c r="I226" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J226" s="25">
+        <v>81</v>
+      </c>
+      <c r="K226" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L226" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M226" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N226" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O226" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P226" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R226" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S226" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19">
+      <c r="A227" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B227" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C227" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D227" s="4">
+        <v>7.68</v>
+      </c>
+      <c r="E227" s="4">
+        <v>3.28</v>
+      </c>
+      <c r="F227" s="4">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="G227" s="4">
+        <v>12.48</v>
+      </c>
+      <c r="H227" s="25">
+        <v>2</v>
+      </c>
+      <c r="I227" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J227" s="25">
+        <v>81</v>
+      </c>
+      <c r="K227" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L227" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M227" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N227" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O227" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P227" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R227" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S227" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19">
+      <c r="A228" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B228" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C228" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D228" s="4">
+        <v>6.61</v>
+      </c>
+      <c r="E228" s="4">
+        <v>3.59</v>
+      </c>
+      <c r="F228" s="4">
+        <v>9.57</v>
+      </c>
+      <c r="G228" s="4">
+        <v>12.89</v>
+      </c>
+      <c r="H228" s="25">
+        <v>2</v>
+      </c>
+      <c r="I228" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J228" s="25">
+        <v>81</v>
+      </c>
+      <c r="K228" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L228" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M228" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N228" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O228" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P228" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R228" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S228" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19">
+      <c r="A229" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B229" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C229" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D229" s="4">
+        <v>5.56</v>
+      </c>
+      <c r="E229" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="F229" s="4">
+        <v>7.61</v>
+      </c>
+      <c r="G229" s="4">
+        <v>10.46</v>
+      </c>
+      <c r="H229" s="25">
+        <v>2</v>
+      </c>
+      <c r="I229" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J229" s="25">
+        <v>81</v>
+      </c>
+      <c r="K229" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L229" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M229" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N229" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O229" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P229" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R229" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S229" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19">
+      <c r="A230" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B230" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C230" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D230" s="4">
+        <v>5.67</v>
+      </c>
+      <c r="E230" s="4">
+        <v>2.63</v>
+      </c>
+      <c r="F230" s="4">
+        <v>4.54</v>
+      </c>
+      <c r="G230" s="4">
+        <v>7.41</v>
+      </c>
+      <c r="H230" s="25">
+        <v>2</v>
+      </c>
+      <c r="I230" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J230" s="25">
+        <v>81</v>
+      </c>
+      <c r="K230" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L230" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M230" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N230" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O230" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P230" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R230" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S230" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19">
+      <c r="A231" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B231" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C231" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D231" s="4">
+        <v>6.74</v>
+      </c>
+      <c r="E231" s="4">
+        <v>3.23</v>
+      </c>
+      <c r="F231" s="4">
+        <v>8.77</v>
+      </c>
+      <c r="G231" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="H231" s="25">
+        <v>2</v>
+      </c>
+      <c r="I231" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J231" s="25">
+        <v>81</v>
+      </c>
+      <c r="K231" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L231" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M231" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N231" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O231" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P231" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R231" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S231" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19">
+      <c r="A232" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B232" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C232" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D232" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E232" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="F232" s="4">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="G232" s="4">
+        <v>11.21</v>
+      </c>
+      <c r="H232" s="25">
+        <v>2</v>
+      </c>
+      <c r="I232" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J232" s="25">
+        <v>81</v>
+      </c>
+      <c r="K232" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L232" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M232" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N232" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O232" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P232" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R232" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S232" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19">
+      <c r="A233" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B233" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D233" s="4">
+        <v>5.87</v>
+      </c>
+      <c r="E233" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="F233" s="4">
+        <v>8.64</v>
+      </c>
+      <c r="G233" s="4">
+        <v>11.58</v>
+      </c>
+      <c r="H233" s="25">
+        <v>2</v>
+      </c>
+      <c r="I233" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J233" s="25">
+        <v>81</v>
+      </c>
+      <c r="K233" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L233" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M233" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N233" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O233" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P233" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R233" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S233" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19">
+      <c r="A234" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B234" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D234" s="4">
+        <v>5.51</v>
+      </c>
+      <c r="E234" s="4">
+        <v>2.79</v>
+      </c>
+      <c r="F234" s="4">
+        <v>7.19</v>
+      </c>
+      <c r="G234" s="4">
+        <v>9.69</v>
+      </c>
+      <c r="H234" s="25">
+        <v>2</v>
+      </c>
+      <c r="I234" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J234" s="25">
+        <v>81</v>
+      </c>
+      <c r="K234" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L234" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M234" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N234" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O234" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P234" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R234" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S234" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19">
+      <c r="A235" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B235" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D235" s="4">
+        <v>7.41</v>
+      </c>
+      <c r="E235" s="4">
+        <v>3.36</v>
+      </c>
+      <c r="F235" s="4">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="G235" s="4">
+        <v>12.34</v>
+      </c>
+      <c r="H235" s="25">
+        <v>2</v>
+      </c>
+      <c r="I235" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J235" s="25">
+        <v>81</v>
+      </c>
+      <c r="K235" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L235" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M235" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N235" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O235" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P235" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R235" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S235" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19">
+      <c r="A236" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B236" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D236" s="4">
+        <v>5.73</v>
+      </c>
+      <c r="E236" s="4">
+        <v>3.13</v>
+      </c>
+      <c r="F236" s="4">
+        <v>8.61</v>
+      </c>
+      <c r="G236" s="4">
+        <v>11.54</v>
+      </c>
+      <c r="H236" s="25">
+        <v>2</v>
+      </c>
+      <c r="I236" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J236" s="25">
+        <v>81</v>
+      </c>
+      <c r="K236" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L236" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M236" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N236" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O236" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P236" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R236" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S236" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19">
+      <c r="A237" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B237" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C237" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D237" s="4">
+        <v>6.47</v>
+      </c>
+      <c r="E237" s="4">
+        <v>3.54</v>
+      </c>
+      <c r="F237" s="4">
+        <v>9.08</v>
+      </c>
+      <c r="G237" s="4">
+        <v>12.37</v>
+      </c>
+      <c r="H237" s="25">
+        <v>2</v>
+      </c>
+      <c r="I237" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J237" s="25">
+        <v>81</v>
+      </c>
+      <c r="K237" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L237" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M237" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N237" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O237" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P237" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R237" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S237" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19">
+      <c r="A238" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B238" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C238" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D238" s="4">
+        <v>5.48</v>
+      </c>
+      <c r="E238" s="4">
+        <v>2.98</v>
+      </c>
+      <c r="F238" s="4">
+        <v>8.32</v>
+      </c>
+      <c r="G238" s="4">
+        <v>11.23</v>
+      </c>
+      <c r="H238" s="25">
+        <v>2</v>
+      </c>
+      <c r="I238" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J238" s="25">
+        <v>81</v>
+      </c>
+      <c r="K238" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L238" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M238" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N238" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O238" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P238" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R238" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S238" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19">
+      <c r="A239" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B239" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C239" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D239" s="4">
+        <v>5.22</v>
+      </c>
+      <c r="E239" s="4">
+        <v>2.87</v>
+      </c>
+      <c r="F239" s="4">
+        <v>7.38</v>
+      </c>
+      <c r="G239" s="4">
+        <v>10.01</v>
+      </c>
+      <c r="H239" s="25">
+        <v>2</v>
+      </c>
+      <c r="I239" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J239" s="25">
+        <v>81</v>
+      </c>
+      <c r="K239" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L239" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M239" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N239" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O239" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P239" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R239" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S239" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19">
+      <c r="A240" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B240" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C240" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D240" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="E240" s="4">
+        <v>2.88</v>
+      </c>
+      <c r="F240" s="4">
+        <v>8.24</v>
+      </c>
+      <c r="G240" s="4">
+        <v>10.93</v>
+      </c>
+      <c r="H240" s="25">
+        <v>2</v>
+      </c>
+      <c r="I240" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J240" s="25">
+        <v>81</v>
+      </c>
+      <c r="K240" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L240" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M240" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N240" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O240" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P240" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R240" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S240" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20">
+      <c r="A241" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B241" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C241" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D241" s="4">
+        <v>7.85</v>
+      </c>
+      <c r="E241" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="F241" s="4">
+        <v>9.49</v>
+      </c>
+      <c r="G241" s="4">
+        <v>12.76</v>
+      </c>
+      <c r="H241" s="25">
+        <v>2</v>
+      </c>
+      <c r="I241" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J241" s="25">
+        <v>81</v>
+      </c>
+      <c r="K241" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L241" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M241" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N241" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O241" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P241" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R241" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S241" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20">
+      <c r="A242" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B242" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C242" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D242" s="4">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="E242" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="F242" s="4">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="G242" s="4">
+        <v>10.86</v>
+      </c>
+      <c r="H242" s="25">
+        <v>2</v>
+      </c>
+      <c r="I242" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J242" s="25">
+        <v>81</v>
+      </c>
+      <c r="K242" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L242" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M242" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N242" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O242" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P242" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R242" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S242" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20">
+      <c r="A243" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B243" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C243" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D243" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="E243" s="4">
+        <v>3.35</v>
+      </c>
+      <c r="F243" s="4">
+        <v>8</v>
+      </c>
+      <c r="G243" s="4">
+        <v>11.37</v>
+      </c>
+      <c r="H243" s="25">
+        <v>2</v>
+      </c>
+      <c r="I243" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J243" s="25">
+        <v>81</v>
+      </c>
+      <c r="K243" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L243" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M243" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N243" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O243" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P243" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R243" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S243" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20">
+      <c r="A244" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B244" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C244" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D244" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E244" s="4">
+        <v>3.49</v>
+      </c>
+      <c r="F244" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="G244" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="H244" s="25">
+        <v>2</v>
+      </c>
+      <c r="I244" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J244" s="25">
+        <v>81</v>
+      </c>
+      <c r="K244" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L244" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M244" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N244" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O244" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P244" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R244" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S244" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20">
+      <c r="A245" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B245" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C245" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D245" s="4">
+        <v>5.64</v>
+      </c>
+      <c r="E245" s="4">
+        <v>3.04</v>
+      </c>
+      <c r="F245" s="4">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="G245" s="4">
+        <v>10.85</v>
+      </c>
+      <c r="H245" s="25">
+        <v>2</v>
+      </c>
+      <c r="I245" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J245" s="25">
+        <v>81</v>
+      </c>
+      <c r="K245" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L245" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M245" s="15">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N245" s="15">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O245" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P245" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R245" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="S245" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20">
+      <c r="A246" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B246" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C246" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D246" s="8">
+        <v>5.04</v>
+      </c>
+      <c r="E246" s="8">
+        <v>2.86</v>
+      </c>
+      <c r="F246" s="8">
+        <v>7.87</v>
+      </c>
+      <c r="G246" s="8">
+        <v>10.61</v>
+      </c>
+      <c r="H246" s="9">
+        <v>2</v>
+      </c>
+      <c r="I246" s="9">
+        <v>2020</v>
+      </c>
+      <c r="J246" s="9">
+        <v>81</v>
+      </c>
+      <c r="K246" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L246" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M246" s="16">
+        <v>27.896740300000001</v>
+      </c>
+      <c r="N246" s="16">
+        <v>-81.580465399999994</v>
+      </c>
+      <c r="O246" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P246" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q246" s="7"/>
+      <c r="R246" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="S246" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="T246" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
